--- a/template.xlsx
+++ b/template.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AR_ANH THƠ\KHÁC\APPSHEET-LEOTEACK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Dropbox\PC\Desktop\AURY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3820983C-9A2C-4FD9-83FF-648514C8FA8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>CÔNG TY TNHH AURY VIỆT NAM</t>
   </si>
@@ -167,10 +166,6 @@
     <t>Tổng tiền hàng chưa bao gồm VAT</t>
   </si>
   <si>
-    <t>Mã đơn hàng: …......
-Ngày tạo đơn: ….........</t>
-  </si>
-  <si>
     <r>
       <t>Head Office:</t>
     </r>
@@ -308,13 +303,16 @@
       </rPr>
       <t>(Ký, họ tên)</t>
     </r>
+  </si>
+  <si>
+    <t>Mã đơn hàng:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -370,6 +368,12 @@
       <sz val="9"/>
       <name val="Montserrat"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Montserrat"/>
+      <charset val="163"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -559,45 +563,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -610,20 +575,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -635,38 +588,89 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -724,51 +728,6 @@
         <a:xfrm>
           <a:off x="825818" y="445056"/>
           <a:ext cx="1028700" cy="508000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="981075" cy="977900"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="image2.jpg">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1096,478 +1055,489 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:L26"/>
+  <dimension ref="A2:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="128" zoomScaleNormal="100" zoomScaleSheetLayoutView="128" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22:K22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="128" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="3" customWidth="1"/>
-    <col min="3" max="5" width="11.44140625" style="3"/>
-    <col min="6" max="6" width="10.77734375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="5.77734375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="15.77734375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" style="3"/>
-    <col min="11" max="11" width="15.77734375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="0.21875" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="11.44140625" style="3"/>
+    <col min="1" max="1" width="9.6328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.08984375" style="3" customWidth="1"/>
+    <col min="3" max="5" width="11.453125" style="3"/>
+    <col min="6" max="6" width="10.81640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.08984375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.81640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.81640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="13.36328125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="15.81640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="0.1796875" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="11.453125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
+    <row r="2" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="1"/>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="19"/>
-    </row>
-    <row r="3" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="1"/>
-      <c r="E3" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="18"/>
-    </row>
-    <row r="5" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="16" t="s">
+      <c r="E3" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="5" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="20"/>
-    </row>
-    <row r="6" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="21"/>
-    </row>
-    <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="5" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5" t="s">
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="24" t="s">
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+    </row>
+    <row r="9" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="8"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="26"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="8"/>
+    <row r="10" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="26"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="24" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A12" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="7" t="s">
+      <c r="B12" s="25"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="24" t="s">
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A13" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-    </row>
-    <row r="13" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="24" t="s">
+      <c r="B13" s="25"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+    </row>
+    <row r="14" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="1:12" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="24" t="s">
+      <c r="B14" s="25"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+    </row>
+    <row r="15" spans="1:12" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-    </row>
-    <row r="15" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="5" t="s">
+      <c r="B15" s="25"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+    </row>
+    <row r="16" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="1:12" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.35">
-      <c r="A16" s="40" t="s">
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+    </row>
+    <row r="17" spans="1:11" s="11" customFormat="1" ht="28" x14ac:dyDescent="0.4">
+      <c r="A17" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B17" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C17" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="40" t="s">
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="40" t="s">
+      <c r="G17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="40" t="s">
+      <c r="H17" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="40" t="s">
+      <c r="I17" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="40" t="s">
+      <c r="J17" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="K16" s="40" t="s">
+    </row>
+    <row r="18" spans="1:11" s="11" customFormat="1" ht="22.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="9">
+        <v>1</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10">
+        <f>F18*H18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="11" customFormat="1" ht="22.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="14">
+        <v>2</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="11" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="32">
+        <v>0</v>
+      </c>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+    </row>
+    <row r="21" spans="1:11" s="11" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="32">
+        <v>0</v>
+      </c>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+    </row>
+    <row r="22" spans="1:11" s="11" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="32">
+        <v>0</v>
+      </c>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+    </row>
+    <row r="23" spans="1:11" s="11" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="32">
+        <v>0</v>
+      </c>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+    </row>
+    <row r="24" spans="1:11" s="11" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="41">
+        <v>0</v>
+      </c>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+    </row>
+    <row r="25" spans="1:11" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+    </row>
+    <row r="26" spans="1:11" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="36" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" s="28" customFormat="1" ht="22.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="25">
-        <v>1</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="27">
-        <v>0</v>
-      </c>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27">
-        <f>F17*H17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="28" customFormat="1" ht="22.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="37">
-        <v>2</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="28" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="31">
-        <v>0</v>
-      </c>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-    </row>
-    <row r="20" spans="1:11" s="28" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="31">
-        <v>0</v>
-      </c>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-    </row>
-    <row r="21" spans="1:11" s="28" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="31">
-        <v>0</v>
-      </c>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-    </row>
-    <row r="22" spans="1:11" s="28" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="31">
-        <v>0</v>
-      </c>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-    </row>
-    <row r="23" spans="1:11" s="28" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="34">
-        <v>0</v>
-      </c>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-    </row>
-    <row r="24" spans="1:11" s="28" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-    </row>
-    <row r="25" spans="1:11" s="28" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="13" t="s">
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-    </row>
-    <row r="26" spans="1:11" s="28" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="4"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
       <c r="F26" s="36"/>
       <c r="G26" s="36"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
+      <c r="H26" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+    </row>
+    <row r="27" spans="1:11" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="4"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:H10"/>
+  <mergeCells count="42">
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:K24"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:K22"/>
+    <mergeCell ref="E20:K20"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:K23"/>
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:K21"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K15"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="H8:K8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:H11"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:K14"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:K20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:K21"/>
-    <mergeCell ref="E19:K19"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:K22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E23:K23"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="E2:K2"/>
   </mergeCells>
   <pageMargins left="0.79" right="0.39" top="0" bottom="0.39" header="0" footer="0.5"/>
-  <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/template.xlsx
+++ b/template.xlsx
@@ -551,7 +551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -597,9 +597,63 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -618,59 +672,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1061,8 +1067,8 @@
   </sheetPr>
   <dimension ref="A2:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="128" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="128" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -1081,221 +1087,221 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="1"/>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
       <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="1"/>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
       <c r="L3" s="5"/>
     </row>
     <row r="5" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
       <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="39" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
       <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="39" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
       <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24" t="s">
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="26"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="34"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="26"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="34"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="26"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="34"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="28" t="s">
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
     </row>
     <row r="14" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
     </row>
     <row r="15" spans="1:12" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
     </row>
     <row r="16" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-    </row>
-    <row r="17" spans="1:11" s="11" customFormat="1" ht="28" x14ac:dyDescent="0.4">
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+    </row>
+    <row r="17" spans="1:11" s="11" customFormat="1" ht="42" x14ac:dyDescent="0.4">
       <c r="A17" s="16" t="s">
         <v>13</v>
       </c>
@@ -1349,9 +1355,9 @@
         <v>2</v>
       </c>
       <c r="B19" s="14"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="15"/>
@@ -1368,131 +1374,166 @@
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
-      <c r="E20" s="32">
+      <c r="E20" s="26">
         <v>0</v>
       </c>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
     </row>
     <row r="21" spans="1:11" s="11" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="32">
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="26">
         <v>0</v>
       </c>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
     </row>
     <row r="22" spans="1:11" s="11" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="32">
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="26">
         <v>0</v>
       </c>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
     </row>
     <row r="23" spans="1:11" s="11" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="32">
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="26">
         <v>0</v>
       </c>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
     </row>
     <row r="24" spans="1:11" s="11" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="41">
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="23">
         <v>0</v>
       </c>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
     </row>
     <row r="25" spans="1:11" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
     </row>
     <row r="26" spans="1:11" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36" t="s">
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36" t="s">
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
     </row>
     <row r="27" spans="1:11" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="44">
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K15"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:K21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:K22"/>
+    <mergeCell ref="E20:K20"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:K23"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="F27:G27"/>
     <mergeCell ref="H27:K27"/>
@@ -1502,39 +1543,6 @@
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="E26:G26"/>
     <mergeCell ref="H26:K26"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:K22"/>
-    <mergeCell ref="E20:K20"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E23:K23"/>
-    <mergeCell ref="A16:K16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:K21"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:K15"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="E2:K2"/>
   </mergeCells>
   <pageMargins left="0.79" right="0.39" top="0" bottom="0.39" header="0" footer="0.5"/>
   <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>CÔNG TY TNHH AURY VIỆT NAM</t>
   </si>
@@ -306,6 +306,9 @@
   </si>
   <si>
     <t>Mã đơn hàng:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngày tạo đơn: </t>
   </si>
 </sst>
 </file>
@@ -603,6 +606,63 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -620,63 +680,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1067,8 +1070,8 @@
   </sheetPr>
   <dimension ref="A2:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="128" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21:K21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="128" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -1087,49 +1090,49 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="1"/>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
       <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="1"/>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
       <c r="L3" s="5"/>
     </row>
     <row r="5" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
       <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
@@ -1139,10 +1142,10 @@
       <c r="E6" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
       <c r="J6" s="18"/>
       <c r="K6" s="18"/>
       <c r="L6" s="8"/>
@@ -1152,12 +1155,12 @@
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
+        <v>32</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
       <c r="L7" s="8"/>
@@ -1180,111 +1183,111 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="34"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="30"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="34"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="30"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="34"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="30"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="33" t="s">
+      <c r="B12" s="29"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
     </row>
     <row r="14" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
     </row>
     <row r="15" spans="1:12" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
     </row>
     <row r="16" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="28" t="s">
@@ -1308,11 +1311,11 @@
       <c r="B17" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
       <c r="F17" s="16" t="s">
         <v>16</v>
       </c>
@@ -1337,9 +1340,9 @@
         <v>1</v>
       </c>
       <c r="B18" s="9"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
@@ -1355,9 +1358,9 @@
         <v>2</v>
       </c>
       <c r="B19" s="14"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="15"/>
@@ -1374,137 +1377,160 @@
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
-      <c r="E20" s="26">
+      <c r="E20" s="36">
         <v>0</v>
       </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
     </row>
     <row r="21" spans="1:11" s="11" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26">
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="36">
         <v>0</v>
       </c>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
     </row>
     <row r="22" spans="1:11" s="11" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="26">
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="36">
         <v>0</v>
       </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
     </row>
     <row r="23" spans="1:11" s="11" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="26">
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="36">
         <v>0</v>
       </c>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
     </row>
     <row r="24" spans="1:11" s="11" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="23">
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="42">
         <v>0</v>
       </c>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
     </row>
     <row r="25" spans="1:11" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
     </row>
     <row r="26" spans="1:11" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21" t="s">
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21" t="s">
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
     </row>
     <row r="27" spans="1:11" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:K24"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:K22"/>
+    <mergeCell ref="E20:K20"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:K23"/>
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:K21"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K15"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="A9:B9"/>
@@ -1514,35 +1540,12 @@
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:K15"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="A16:K16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:K21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:K22"/>
-    <mergeCell ref="E20:K20"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E23:K23"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:K24"/>
-    <mergeCell ref="A25:K25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="F6:I6"/>
   </mergeCells>
   <pageMargins left="0.79" right="0.39" top="0" bottom="0.39" header="0" footer="0.5"/>
   <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>CÔNG TY TNHH AURY VIỆT NAM</t>
   </si>
@@ -131,9 +131,6 @@
   </si>
   <si>
     <t>STT</t>
-  </si>
-  <si>
-    <t>SKU</t>
   </si>
   <si>
     <t>SẢN PHẨM</t>
@@ -401,7 +398,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -550,11 +547,122 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF3F3F3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF3F3F3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF3F3F3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF3F3F3"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFF3F3F3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF3F3F3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFF3F3F3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF3F3F3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFF3F3F3"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF3F3F3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF3F3F3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF3F3F3"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFF3F3F3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFEFEFEF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFF3F3F3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFEFEFEF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFF3F3F3"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF3F3F3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFEFEFEF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -606,12 +714,48 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -630,56 +774,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1070,8 +1196,8 @@
   </sheetPr>
   <dimension ref="A2:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="128" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="128" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -1090,49 +1216,49 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="1"/>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
       <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="1"/>
-      <c r="E3" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+      <c r="E3" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
       <c r="L3" s="5"/>
     </row>
     <row r="5" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
       <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
@@ -1140,12 +1266,12 @@
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
       <c r="E6" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
+        <v>30</v>
+      </c>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
       <c r="J6" s="18"/>
       <c r="K6" s="18"/>
       <c r="L6" s="8"/>
@@ -1155,194 +1281,190 @@
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
+        <v>31</v>
+      </c>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
       <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28" t="s">
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
     </row>
     <row r="9" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="30"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="31"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="30"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="31"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="30"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="31"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="32" t="s">
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
     </row>
     <row r="14" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
     </row>
     <row r="15" spans="1:12" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
     </row>
     <row r="16" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
     </row>
     <row r="17" spans="1:11" s="11" customFormat="1" ht="42" x14ac:dyDescent="0.4">
       <c r="A17" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="16" t="s">
+      <c r="G17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="H17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="I17" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="J17" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K17" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="11" customFormat="1" ht="22.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="9">
-        <v>1</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
+    </row>
+    <row r="18" spans="1:11" s="11" customFormat="1" ht="14" x14ac:dyDescent="0.4">
+      <c r="A18" s="9"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="46"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
@@ -1353,14 +1475,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="11" customFormat="1" ht="22.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="14">
-        <v>2</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
+    <row r="19" spans="1:11" s="11" customFormat="1" ht="14" x14ac:dyDescent="0.4">
+      <c r="A19" s="14"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="49"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="15"/>
@@ -1372,136 +1492,171 @@
     </row>
     <row r="20" spans="1:11" s="11" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
-      <c r="E20" s="36">
+      <c r="E20" s="26">
         <v>0</v>
       </c>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
     </row>
     <row r="21" spans="1:11" s="11" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="36">
+      <c r="A21" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="26">
         <v>0</v>
       </c>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
     </row>
     <row r="22" spans="1:11" s="11" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="26">
+        <v>0</v>
+      </c>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+    </row>
+    <row r="23" spans="1:11" s="11" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="36">
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="26">
         <v>0</v>
       </c>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-    </row>
-    <row r="23" spans="1:11" s="11" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="35" t="s">
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+    </row>
+    <row r="24" spans="1:11" s="11" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="36">
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="23">
         <v>0</v>
       </c>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-    </row>
-    <row r="24" spans="1:11" s="11" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="42">
-        <v>0</v>
-      </c>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
     </row>
     <row r="25" spans="1:11" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
     </row>
     <row r="26" spans="1:11" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40" t="s">
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
     </row>
     <row r="27" spans="1:11" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K15"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:K21"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:K22"/>
+    <mergeCell ref="E20:K20"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:K23"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="F27:G27"/>
     <mergeCell ref="H27:K27"/>
@@ -1511,41 +1666,6 @@
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="E26:G26"/>
     <mergeCell ref="H26:K26"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:K22"/>
-    <mergeCell ref="E20:K20"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E23:K23"/>
-    <mergeCell ref="A16:K16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:K21"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:K15"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="F6:I6"/>
   </mergeCells>
   <pageMargins left="0.79" right="0.39" top="0" bottom="0.39" header="0" footer="0.5"/>
   <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>CÔNG TY TNHH AURY VIỆT NAM</t>
   </si>
@@ -148,21 +148,6 @@
     <t>THÀNH TIỀN</t>
   </si>
   <si>
-    <t>Tổng thanh toán:</t>
-  </si>
-  <si>
-    <t>Đã tạm ứng:</t>
-  </si>
-  <si>
-    <t>Số tiền thanh toán còn lại:</t>
-  </si>
-  <si>
-    <t>Tiền thuế GTGT %:</t>
-  </si>
-  <si>
-    <t>Tổng tiền hàng chưa bao gồm VAT</t>
-  </si>
-  <si>
     <r>
       <t>Head Office:</t>
     </r>
@@ -258,48 +243,6 @@
   <si>
     <t>THÀNH TIỀN
 (Sau chiết khấu)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Người lập phiếu
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <rFont val="Montserrat"/>
-      </rPr>
-      <t>(Ký, họ tên)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Thủ kho
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <rFont val="Montserrat"/>
-      </rPr>
-      <t>(Ký, họ tên)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Người nhận hàng
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <rFont val="Montserrat"/>
-      </rPr>
-      <t>(Ký, họ tên)</t>
-    </r>
   </si>
   <si>
     <t>Mã đơn hàng:</t>
@@ -312,7 +255,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -363,17 +306,6 @@
       <sz val="11"/>
       <name val="Montserrat"/>
     </font>
-    <font>
-      <i/>
-      <sz val="9"/>
-      <name val="Montserrat"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Montserrat"/>
-      <charset val="163"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -398,7 +330,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -455,21 +387,6 @@
       <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFEFEFEF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
       <right/>
       <top style="thin">
         <color rgb="FFFFFFFF"/>
@@ -662,7 +579,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -671,13 +588,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -693,50 +607,47 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -745,67 +656,40 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1194,10 +1078,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:L27"/>
+  <dimension ref="A2:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="128" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:G14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="128" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -1216,418 +1100,292 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="1"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="6"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="1"/>
-      <c r="E3" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="5"/>
+      <c r="E3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="4"/>
     </row>
     <row r="5" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="7"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="8"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="8"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27" t="s">
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
     </row>
     <row r="9" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="31"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="27"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="31"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="27"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="31"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="27"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="30" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
     </row>
     <row r="14" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
     </row>
     <row r="15" spans="1:12" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
     </row>
     <row r="16" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-    </row>
-    <row r="17" spans="1:11" s="11" customFormat="1" ht="42" x14ac:dyDescent="0.4">
-      <c r="A17" s="16" t="s">
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+    </row>
+    <row r="17" spans="1:11" s="10" customFormat="1" ht="42" x14ac:dyDescent="0.4">
+      <c r="A17" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="16" t="s">
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="16" t="s">
+      <c r="I17" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K17" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="11" customFormat="1" ht="14" x14ac:dyDescent="0.4">
-      <c r="A18" s="9"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10">
+      <c r="J17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="10" customFormat="1" ht="14" x14ac:dyDescent="0.4">
+      <c r="A18" s="8"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9">
         <f>F18*H18</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="11" customFormat="1" ht="14" x14ac:dyDescent="0.4">
-      <c r="A19" s="14"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15">
+    <row r="19" spans="1:11" s="10" customFormat="1" ht="14" x14ac:dyDescent="0.4">
+      <c r="A19" s="11"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="11" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="26">
-        <v>0</v>
-      </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-    </row>
-    <row r="21" spans="1:11" s="11" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26">
-        <v>0</v>
-      </c>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-    </row>
-    <row r="22" spans="1:11" s="11" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="26">
-        <v>0</v>
-      </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-    </row>
-    <row r="23" spans="1:11" s="11" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="26">
-        <v>0</v>
-      </c>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-    </row>
-    <row r="24" spans="1:11" s="11" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="23">
-        <v>0</v>
-      </c>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-    </row>
-    <row r="25" spans="1:11" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-    </row>
-    <row r="26" spans="1:11" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-    </row>
-    <row r="27" spans="1:11" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="4"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-    </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="F6:I6"/>
+  <mergeCells count="25">
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K15"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="A9:B9"/>
@@ -1637,35 +1395,12 @@
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:K15"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="A16:K16"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:K21"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:K22"/>
-    <mergeCell ref="E20:K20"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E23:K23"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:K24"/>
-    <mergeCell ref="A25:K25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="F6:I6"/>
   </mergeCells>
   <pageMargins left="0.79" right="0.39" top="0" bottom="0.39" header="0" footer="0.5"/>
   <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>CÔNG TY TNHH AURY VIỆT NAM</t>
   </si>
@@ -136,18 +136,6 @@
     <t>SẢN PHẨM</t>
   </si>
   <si>
-    <t>SỐ LƯỢNG</t>
-  </si>
-  <si>
-    <t>ĐƠN VỊ</t>
-  </si>
-  <si>
-    <t>ĐƠN GIÁ</t>
-  </si>
-  <si>
-    <t>THÀNH TIỀN</t>
-  </si>
-  <si>
     <r>
       <t>Head Office:</t>
     </r>
@@ -238,17 +226,32 @@
     </r>
   </si>
   <si>
-    <t>CHIẾT KHẤU</t>
-  </si>
-  <si>
-    <t>THÀNH TIỀN
+    <t>Mã đơn hàng:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngày tạo đơn: </t>
+  </si>
+  <si>
+    <t>Số lượng</t>
+  </si>
+  <si>
+    <t>Đơn vị</t>
+  </si>
+  <si>
+    <t>Số tấm</t>
+  </si>
+  <si>
+    <t>Đơn giá</t>
+  </si>
+  <si>
+    <t>Thành tiền</t>
+  </si>
+  <si>
+    <t>Tiền chiết khấu</t>
+  </si>
+  <si>
+    <t>Thành Tiền
 (Sau chiết khấu)</t>
-  </si>
-  <si>
-    <t>Mã đơn hàng:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ngày tạo đơn: </t>
   </si>
 </sst>
 </file>
@@ -330,7 +333,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -526,19 +529,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFF3F3F3"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF3F3F3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFF3F3F3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFF3F3F3"/>
       </left>
@@ -554,19 +544,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color rgb="FFF3F3F3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFEFEFEF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFF3F3F3"/>
-      </right>
       <top style="thin">
         <color rgb="FFF3F3F3"/>
       </top>
@@ -579,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -600,19 +577,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -622,12 +587,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -649,47 +629,37 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1078,10 +1048,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:L19"/>
+  <dimension ref="A2:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="128" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="128" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -1100,282 +1070,358 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="1"/>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
       <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="1"/>
-      <c r="E3" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
+      <c r="E3" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
       <c r="L3" s="4"/>
     </row>
     <row r="5" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
       <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
       <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
       <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
     </row>
     <row r="9" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="27"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="16"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="27"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="16"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="27"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="16"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="29" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
     </row>
     <row r="14" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
     </row>
     <row r="15" spans="1:12" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
     </row>
     <row r="16" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-    </row>
-    <row r="17" spans="1:11" s="10" customFormat="1" ht="42" x14ac:dyDescent="0.4">
-      <c r="A17" s="13" t="s">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+    </row>
+    <row r="17" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.4">
+      <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="35" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="13" t="s">
+      <c r="D17" s="37"/>
+      <c r="E17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="13" t="s">
+      <c r="F17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="13" t="s">
+      <c r="H17" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" s="10" customFormat="1" ht="14" x14ac:dyDescent="0.4">
-      <c r="A18" s="8"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9">
-        <f>F18*H18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="10" customFormat="1" ht="14" x14ac:dyDescent="0.4">
-      <c r="A19" s="11"/>
+      <c r="I17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="28"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+    </row>
+    <row r="19" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="32"/>
       <c r="B19" s="33"/>
       <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12">
-        <v>0</v>
-      </c>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+    </row>
+    <row r="20" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="27"/>
+    </row>
+    <row r="21" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="27"/>
+    </row>
+    <row r="22" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="27"/>
+    </row>
+    <row r="23" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="27"/>
+    </row>
+    <row r="24" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="27"/>
+    </row>
+    <row r="25" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="27"/>
+    </row>
+    <row r="26" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="27"/>
+    </row>
+    <row r="27" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="27"/>
+    </row>
+    <row r="28" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="27"/>
+    </row>
+    <row r="29" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="27"/>
+    </row>
+    <row r="30" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="27"/>
+    </row>
+    <row r="31" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="27"/>
+    </row>
+    <row r="32" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="27"/>
+    </row>
+    <row r="33" spans="1:1" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="27"/>
+    </row>
+    <row r="34" spans="1:1" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="27"/>
+    </row>
+    <row r="35" spans="1:1" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="27"/>
+    </row>
+    <row r="36" spans="1:1" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="27"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A37" s="27"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A38" s="27"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A39" s="27"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A40" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="26">
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
     <mergeCell ref="A16:K16"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
@@ -1386,21 +1432,6 @@
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:G15"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="F6:I6"/>
   </mergeCells>
   <pageMargins left="0.79" right="0.39" top="0" bottom="0.39" header="0" footer="0.5"/>
   <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -556,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -587,48 +587,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -660,6 +618,51 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1051,7 +1054,7 @@
   <dimension ref="A2:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="128" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -1070,49 +1073,49 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="1"/>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
       <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="1"/>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
       <c r="L3" s="4"/>
     </row>
     <row r="5" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
       <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
@@ -1122,10 +1125,10 @@
       <c r="E6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
       <c r="L6" s="7"/>
@@ -1137,162 +1140,162 @@
       <c r="E7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
       <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12" t="s">
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
     </row>
     <row r="9" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="16"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="35"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="16"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="35"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="16"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="35"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15" t="s">
+      <c r="B12" s="34"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
     </row>
     <row r="14" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
     </row>
     <row r="15" spans="1:12" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
     </row>
     <row r="16" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
     </row>
     <row r="17" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.4">
       <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="37"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="9" t="s">
         <v>18</v>
       </c>
@@ -1315,97 +1318,186 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="28"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-    </row>
-    <row r="19" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="32"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-    </row>
-    <row r="20" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="27"/>
-    </row>
-    <row r="21" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="27"/>
-    </row>
-    <row r="22" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="27"/>
-    </row>
-    <row r="23" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="27"/>
-    </row>
-    <row r="24" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="27"/>
-    </row>
-    <row r="25" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="27"/>
-    </row>
-    <row r="26" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="27"/>
-    </row>
-    <row r="27" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="27"/>
-    </row>
-    <row r="28" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="27"/>
-    </row>
-    <row r="29" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="27"/>
-    </row>
-    <row r="30" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="27"/>
-    </row>
-    <row r="31" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="27"/>
-    </row>
-    <row r="32" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="27"/>
-    </row>
-    <row r="33" spans="1:1" s="26" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="27"/>
-    </row>
-    <row r="34" spans="1:1" s="26" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="27"/>
-    </row>
-    <row r="35" spans="1:1" s="26" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="27"/>
-    </row>
-    <row r="36" spans="1:1" s="26" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="27"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A37" s="27"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A38" s="27"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A39" s="27"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A40" s="27"/>
+    <row r="18" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="38"/>
+    </row>
+    <row r="19" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="38"/>
+    </row>
+    <row r="20" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="K20" s="38"/>
+    </row>
+    <row r="21" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="K21" s="38"/>
+    </row>
+    <row r="22" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="K22" s="38"/>
+    </row>
+    <row r="23" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="K23" s="38"/>
+    </row>
+    <row r="24" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="K24" s="38"/>
+    </row>
+    <row r="25" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="K25" s="38"/>
+    </row>
+    <row r="26" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="K26" s="38"/>
+    </row>
+    <row r="27" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="K27" s="38"/>
+    </row>
+    <row r="28" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="K28" s="38"/>
+    </row>
+    <row r="29" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="K29" s="38"/>
+    </row>
+    <row r="30" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="K30" s="38"/>
+    </row>
+    <row r="31" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="K31" s="38"/>
+    </row>
+    <row r="32" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="K32" s="38"/>
+    </row>
+    <row r="33" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="K33" s="38"/>
+    </row>
+    <row r="34" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="K34" s="38"/>
+    </row>
+    <row r="35" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="K35" s="38"/>
+    </row>
+    <row r="36" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="K36" s="38"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="K37" s="38"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="K38" s="38"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="H39" s="38"/>
+      <c r="K39" s="38"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A40" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K15"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="A2:B3"/>
@@ -1422,16 +1514,6 @@
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A16:K16"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:K15"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
   </mergeCells>
   <pageMargins left="0.79" right="0.39" top="0" bottom="0.39" header="0" footer="0.5"/>
   <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -58,22 +58,166 @@
     <t>Người liên hệ:</t>
   </si>
   <si>
-    <r>
-      <t>Tên ngân hàng:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Montserrat"/>
-      </rPr>
-      <t xml:space="preserve"> Ngân hàng TMCP Việt Nam Thịnh Vượng
+    <t>Địa chỉ giao hàng:</t>
+  </si>
+  <si>
+    <t>Điện thoại:</t>
+  </si>
+  <si>
+    <t>Email:</t>
+  </si>
+  <si>
+    <t>III. CHI TIẾT SẢN PHẨM</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>SẢN PHẨM</t>
+  </si>
+  <si>
+    <r>
+      <t>Head Office:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t xml:space="preserve"> Lầu 9, Tòa nhà Viễn Đông, 14 Phan Tôn, Phường Tân Định, TP Hồ Chí Minh
 </t>
     </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t xml:space="preserve">Showroom: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t xml:space="preserve">211 Đỗ Pháp Thuận, Phường Bình Trưng, Thành Phố Hồ Chí Minh
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t>Tax code:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t xml:space="preserve"> 0313074659
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t>Phone:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t xml:space="preserve"> 0985 190 667 |  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t>Email:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t xml:space="preserve"> info@auryvietnam.com | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t>Website:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t xml:space="preserve"> auryvietnam.com</t>
+    </r>
+  </si>
+  <si>
+    <t>Mã đơn hàng:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngày tạo đơn: </t>
+  </si>
+  <si>
+    <t>Số lượng</t>
+  </si>
+  <si>
+    <t>Đơn vị</t>
+  </si>
+  <si>
+    <t>Số tấm</t>
+  </si>
+  <si>
+    <t>Đơn giá</t>
+  </si>
+  <si>
+    <t>Thành tiền</t>
+  </si>
+  <si>
+    <t>Tiền chiết khấu</t>
+  </si>
+  <si>
+    <t>Thành Tiền
+(Sau chiết khấu)</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
         <sz val="8"/>
         <rFont val="Montserrat"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve">Tên ngân hàng: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Montserrat"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve">Ngân hàng TMCP Việt Nam Thịnh Vượng
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Montserrat"/>
+        <charset val="163"/>
       </rPr>
       <t>Swift code:</t>
     </r>
@@ -81,6 +225,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Montserrat"/>
+        <charset val="163"/>
       </rPr>
       <t xml:space="preserve"> VPBKVNVX
 </t>
@@ -90,6 +235,7 @@
         <b/>
         <sz val="8"/>
         <rFont val="Montserrat"/>
+        <charset val="163"/>
       </rPr>
       <t>Số tài khoản:</t>
     </r>
@@ -97,6 +243,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Montserrat"/>
+        <charset val="163"/>
       </rPr>
       <t xml:space="preserve"> 114210595
 </t>
@@ -106,159 +253,25 @@
         <b/>
         <sz val="8"/>
         <rFont val="Montserrat"/>
-      </rPr>
-      <t>Người thụ hưởng:</t>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve">Người thụ hưởng: </t>
     </r>
     <r>
       <rPr>
         <sz val="8"/>
         <rFont val="Montserrat"/>
-      </rPr>
-      <t xml:space="preserve"> CONG TY TNHH AURY VIET NAM</t>
-    </r>
-  </si>
-  <si>
-    <t>Địa chỉ giao hàng:</t>
-  </si>
-  <si>
-    <t>Điện thoại:</t>
-  </si>
-  <si>
-    <t>Email:</t>
-  </si>
-  <si>
-    <t>III. CHI TIẾT SẢN PHẨM</t>
-  </si>
-  <si>
-    <t>STT</t>
-  </si>
-  <si>
-    <t>SẢN PHẨM</t>
-  </si>
-  <si>
-    <r>
-      <t>Head Office:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Montserrat"/>
-      </rPr>
-      <t xml:space="preserve"> Lầu 9, Tòa nhà Viễn Đông, 14 Phan Tôn, Phường Tân Định, TP Hồ Chí Minh
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Montserrat"/>
-      </rPr>
-      <t xml:space="preserve">Showroom: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Montserrat"/>
-      </rPr>
-      <t xml:space="preserve">211 Đỗ Pháp Thuận, Phường Bình Trưng, Thành Phố Hồ Chí Minh
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Montserrat"/>
-      </rPr>
-      <t>Tax code:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Montserrat"/>
-      </rPr>
-      <t xml:space="preserve"> 0313074659
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Montserrat"/>
-      </rPr>
-      <t>Phone:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Montserrat"/>
-      </rPr>
-      <t xml:space="preserve"> 0985 190 667 |  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Montserrat"/>
-      </rPr>
-      <t>Email:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Montserrat"/>
-      </rPr>
-      <t xml:space="preserve"> info@auryvietnam.com | </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Montserrat"/>
-      </rPr>
-      <t>Website:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Montserrat"/>
-      </rPr>
-      <t xml:space="preserve"> auryvietnam.com</t>
-    </r>
-  </si>
-  <si>
-    <t>Mã đơn hàng:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ngày tạo đơn: </t>
-  </si>
-  <si>
-    <t>Số lượng</t>
-  </si>
-  <si>
-    <t>Đơn vị</t>
-  </si>
-  <si>
-    <t>Số tấm</t>
-  </si>
-  <si>
-    <t>Đơn giá</t>
-  </si>
-  <si>
-    <t>Thành tiền</t>
-  </si>
-  <si>
-    <t>Tiền chiết khấu</t>
-  </si>
-  <si>
-    <t>Thành Tiền
-(Sau chiết khấu)</t>
+        <charset val="163"/>
+      </rPr>
+      <t>CONG TY TNHH AURY VIET NAM</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -302,12 +315,19 @@
       <name val="Montserrat"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="11"/>
       <name val="Montserrat"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="8"/>
       <name val="Montserrat"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Montserrat"/>
+      <charset val="163"/>
     </font>
   </fonts>
   <fills count="5">
@@ -329,11 +349,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCFE2F3"/>
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -552,19 +573,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -578,17 +647,14 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -610,59 +676,86 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1054,450 +1147,441 @@
   <dimension ref="A2:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="128" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.6328125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.08984375" style="3" customWidth="1"/>
-    <col min="3" max="5" width="11.453125" style="3"/>
-    <col min="6" max="6" width="10.81640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.08984375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.81640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="15.81640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="13.36328125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="15.81640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="0.1796875" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="11.453125" style="3"/>
+    <col min="1" max="1" width="9.6328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.08984375" style="2" customWidth="1"/>
+    <col min="3" max="5" width="11.453125" style="2"/>
+    <col min="6" max="6" width="10.81640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.08984375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.81640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.81640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.36328125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.81640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="0.1796875" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="1"/>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="5"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="1"/>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="5" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="4"/>
-    </row>
-    <row r="5" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="6"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="10" t="s">
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="7"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="10" t="s">
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+    </row>
+    <row r="9" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="38"/>
+    </row>
+    <row r="10" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="41"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="41"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A12" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="44"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A13" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+    </row>
+    <row r="14" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+    </row>
+    <row r="15" spans="1:12" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+    </row>
+    <row r="16" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+    </row>
+    <row r="17" spans="1:11" s="7" customFormat="1" ht="42" x14ac:dyDescent="0.4">
+      <c r="A17" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="34"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="7"/>
-    </row>
-    <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-    </row>
-    <row r="9" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A11" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A12" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A13" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-    </row>
-    <row r="14" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-    </row>
-    <row r="15" spans="1:12" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-    </row>
-    <row r="16" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-    </row>
-    <row r="17" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.4">
-      <c r="A17" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="9" t="s">
+      <c r="F17" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="G17" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="H17" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="I17" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="J17" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="K17" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="K17" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="38"/>
-    </row>
-    <row r="19" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="38"/>
-    </row>
-    <row r="20" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="K20" s="38"/>
-    </row>
-    <row r="21" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="K21" s="38"/>
-    </row>
-    <row r="22" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="K22" s="38"/>
-    </row>
-    <row r="23" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="K23" s="38"/>
-    </row>
-    <row r="24" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="K24" s="38"/>
-    </row>
-    <row r="25" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="K25" s="38"/>
-    </row>
-    <row r="26" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="K26" s="38"/>
-    </row>
-    <row r="27" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="K27" s="38"/>
-    </row>
-    <row r="28" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="K28" s="38"/>
-    </row>
-    <row r="29" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="K29" s="38"/>
-    </row>
-    <row r="30" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="K30" s="38"/>
-    </row>
-    <row r="31" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="K31" s="38"/>
-    </row>
-    <row r="32" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="K32" s="38"/>
-    </row>
-    <row r="33" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="K33" s="38"/>
-    </row>
-    <row r="34" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="K34" s="38"/>
-    </row>
-    <row r="35" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="K35" s="38"/>
-    </row>
-    <row r="36" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="K36" s="38"/>
+    </row>
+    <row r="18" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="19"/>
+    </row>
+    <row r="19" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="19"/>
+    </row>
+    <row r="20" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="K20" s="19"/>
+    </row>
+    <row r="21" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="K21" s="19"/>
+    </row>
+    <row r="22" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="K22" s="19"/>
+    </row>
+    <row r="23" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="K23" s="19"/>
+    </row>
+    <row r="24" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="K24" s="19"/>
+    </row>
+    <row r="25" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="K25" s="19"/>
+    </row>
+    <row r="26" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="K26" s="19"/>
+    </row>
+    <row r="27" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="K27" s="19"/>
+    </row>
+    <row r="28" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="K28" s="19"/>
+    </row>
+    <row r="29" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="K29" s="19"/>
+    </row>
+    <row r="30" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="K30" s="19"/>
+    </row>
+    <row r="31" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="K31" s="19"/>
+    </row>
+    <row r="32" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="K32" s="19"/>
+    </row>
+    <row r="33" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="K33" s="19"/>
+    </row>
+    <row r="34" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="K34" s="19"/>
+    </row>
+    <row r="35" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="K35" s="19"/>
+    </row>
+    <row r="36" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="K36" s="19"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="K37" s="38"/>
+      <c r="A37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="K37" s="19"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="K38" s="38"/>
+      <c r="A38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="K38" s="19"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="H39" s="38"/>
-      <c r="K39" s="38"/>
+      <c r="A39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="H39" s="19"/>
+      <c r="K39" s="19"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A40" s="13"/>
+      <c r="A40" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="A16:K16"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:K15"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
+  <mergeCells count="25">
+    <mergeCell ref="H9:K12"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="A2:B3"/>
@@ -1509,11 +1593,19 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:H11"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
   </mergeCells>
   <pageMargins left="0.79" right="0.39" top="0" bottom="0.39" header="0" footer="0.5"/>
   <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -354,7 +354,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -394,13 +394,77 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF3F3F3"/>
+        <color rgb="FFFFFFFF"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color rgb="FFF3F3F3"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF3F3F3"/>
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FFF3F3F3"/>
@@ -408,90 +472,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF3F3F3"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF3F3F3"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF3F3F3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFEFEFEF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
       <right/>
       <top style="thin">
         <color rgb="FFFFFFFF"/>
@@ -503,7 +484,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
       <top style="thin">
         <color rgb="FFFFFFFF"/>
       </top>
@@ -513,67 +496,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFF3F3F3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF3F3F3"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFF3F3F3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFF3F3F3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFF3F3F3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFF3F3F3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF3F3F3"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFF3F3F3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFEFEFEF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFF3F3F3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFEFEFEF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
@@ -628,16 +550,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -647,38 +569,26 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -688,74 +598,68 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1146,8 +1050,8 @@
   </sheetPr>
   <dimension ref="A2:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="128" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="128" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -1166,49 +1070,49 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="1"/>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="1"/>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
       <c r="L3" s="3"/>
     </row>
     <row r="5" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
       <c r="L5" s="5"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
@@ -1218,10 +1122,10 @@
       <c r="E6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="6"/>
@@ -1233,355 +1137,369 @@
       <c r="E7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
     </row>
     <row r="9" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="36" t="s">
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="38"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="21"/>
     </row>
     <row r="10" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="41"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="41"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="44"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="27"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
     </row>
     <row r="14" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
     </row>
     <row r="15" spans="1:12" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
     </row>
     <row r="16" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
     </row>
     <row r="17" spans="1:11" s="7" customFormat="1" ht="42" x14ac:dyDescent="0.4">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="32" t="s">
+      <c r="C17" s="29"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="32" t="s">
+      <c r="F17" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="32" t="s">
+      <c r="G17" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="32" t="s">
+      <c r="H17" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="32" t="s">
+      <c r="I17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="32" t="s">
+      <c r="J17" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="32" t="s">
+      <c r="K17" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
+    <row r="18" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="11"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="11"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="19"/>
-    </row>
-    <row r="19" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+    </row>
+    <row r="19" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="11"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="11"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="19"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
     </row>
     <row r="20" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="11"/>
       <c r="E20" s="11"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="K20" s="19"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
     </row>
     <row r="21" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="11"/>
       <c r="E21" s="11"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="K21" s="19"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
     </row>
     <row r="22" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="11"/>
       <c r="E22" s="11"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="K22" s="19"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
     </row>
     <row r="23" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="11"/>
       <c r="E23" s="11"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="K23" s="19"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
     </row>
     <row r="24" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="11"/>
       <c r="E24" s="11"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="K24" s="19"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
     </row>
     <row r="25" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="11"/>
       <c r="E25" s="11"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="K25" s="19"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
     </row>
     <row r="26" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26" s="11"/>
       <c r="E26" s="11"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="K26" s="19"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
     </row>
     <row r="27" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A27" s="11"/>
       <c r="E27" s="11"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="K27" s="19"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
     </row>
     <row r="28" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A28" s="11"/>
       <c r="E28" s="11"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="K28" s="19"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
     </row>
     <row r="29" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A29" s="11"/>
       <c r="E29" s="11"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="K29" s="19"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
     </row>
     <row r="30" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A30" s="11"/>
       <c r="E30" s="11"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="K30" s="19"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
     </row>
     <row r="31" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A31" s="11"/>
       <c r="E31" s="11"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="K31" s="19"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
     </row>
     <row r="32" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A32" s="11"/>
       <c r="E32" s="11"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="K32" s="19"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
     </row>
     <row r="33" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A33" s="11"/>
       <c r="E33" s="11"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="K33" s="19"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
     </row>
     <row r="34" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A34" s="11"/>
       <c r="E34" s="11"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="K34" s="19"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
     </row>
     <row r="35" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A35" s="11"/>
       <c r="E35" s="11"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="K35" s="19"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="K35" s="13"/>
     </row>
     <row r="36" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A36" s="11"/>
       <c r="E36" s="11"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="K36" s="19"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="K36" s="13"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" s="11"/>
       <c r="E37" s="11"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="K37" s="19"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="K37" s="13"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" s="11"/>
       <c r="E38" s="11"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="K38" s="19"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="K38" s="13"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" s="11"/>
       <c r="E39" s="11"/>
-      <c r="H39" s="19"/>
-      <c r="K39" s="19"/>
+      <c r="H39" s="13"/>
+      <c r="K39" s="13"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="H9:K12"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="A2:B3"/>
@@ -1606,6 +1524,7 @@
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H9:K12"/>
   </mergeCells>
   <pageMargins left="0.79" right="0.39" top="0" bottom="0.39" header="0" footer="0.5"/>
   <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -589,13 +589,49 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -624,42 +660,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1051,7 +1051,7 @@
   <dimension ref="A2:L40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="128" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -1070,49 +1070,49 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="1"/>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="1"/>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
       <c r="L3" s="3"/>
     </row>
     <row r="5" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
       <c r="L5" s="5"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
@@ -1122,10 +1122,10 @@
       <c r="E6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="6"/>
@@ -1137,162 +1137,162 @@
       <c r="E7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16" t="s">
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19" t="s">
+      <c r="B9" s="29"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="21"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="33"/>
     </row>
     <row r="10" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="24"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A11" s="17" t="s">
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="36"/>
+    </row>
+    <row r="11" spans="1:12" ht="32.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="24"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="36"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="27"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="39"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
     </row>
     <row r="14" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
     </row>
     <row r="15" spans="1:12" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
     </row>
     <row r="16" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
     </row>
     <row r="17" spans="1:11" s="7" customFormat="1" ht="42" x14ac:dyDescent="0.4">
       <c r="A17" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="18"/>
       <c r="E17" s="14" t="s">
         <v>17</v>
       </c>
@@ -1500,6 +1500,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H9:K12"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="A2:B3"/>
@@ -1516,15 +1525,6 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="A16:K16"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H9:K12"/>
   </mergeCells>
   <pageMargins left="0.79" right="0.39" top="0" bottom="0.39" header="0" footer="0.5"/>
   <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>CÔNG TY TNHH AURY VIỆT NAM</t>
   </si>
@@ -164,12 +164,6 @@
       </rPr>
       <t xml:space="preserve"> auryvietnam.com</t>
     </r>
-  </si>
-  <si>
-    <t>Mã đơn hàng:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ngày tạo đơn: </t>
   </si>
   <si>
     <t>Số lượng</t>
@@ -550,7 +544,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -569,12 +563,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -589,6 +577,39 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -598,12 +619,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -622,44 +637,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1051,7 +1039,7 @@
   <dimension ref="A2:L40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="128" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="A7" sqref="A7:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -1070,436 +1058,450 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="1"/>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="1"/>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
       <c r="L3" s="3"/>
     </row>
     <row r="5" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
       <c r="L5" s="5"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="8" t="s">
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+    </row>
+    <row r="9" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+    </row>
+    <row r="10" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="21"/>
+    </row>
+    <row r="11" spans="1:12" ht="32.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="21"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A12" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="24"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A13" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+    </row>
+    <row r="14" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+    </row>
+    <row r="15" spans="1:12" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+    </row>
+    <row r="17" spans="1:11" s="7" customFormat="1" ht="42" x14ac:dyDescent="0.4">
+      <c r="A17" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="6"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="8" t="s">
+      <c r="F17" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="6"/>
-    </row>
-    <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-    </row>
-    <row r="9" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="33"/>
-    </row>
-    <row r="10" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="36"/>
-    </row>
-    <row r="11" spans="1:12" ht="32.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="36"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A12" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="39"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A13" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-    </row>
-    <row r="14" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-    </row>
-    <row r="15" spans="1:12" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-    </row>
-    <row r="16" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-    </row>
-    <row r="17" spans="1:11" s="7" customFormat="1" ht="42" x14ac:dyDescent="0.4">
-      <c r="A17" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="14" t="s">
+      <c r="G17" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="H17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="I17" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="J17" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="K17" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="K17" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="11"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-    </row>
-    <row r="19" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="11"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-    </row>
-    <row r="20" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-    </row>
-    <row r="21" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-    </row>
-    <row r="22" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-    </row>
-    <row r="23" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-    </row>
-    <row r="24" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-    </row>
-    <row r="25" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-    </row>
-    <row r="26" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-    </row>
-    <row r="27" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-    </row>
-    <row r="28" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-    </row>
-    <row r="29" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-    </row>
-    <row r="30" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-    </row>
-    <row r="31" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-    </row>
-    <row r="32" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-    </row>
-    <row r="33" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-    </row>
-    <row r="34" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-    </row>
-    <row r="35" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="K35" s="13"/>
-    </row>
-    <row r="36" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="K36" s="13"/>
+    </row>
+    <row r="18" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="9"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+    </row>
+    <row r="19" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="9"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+    </row>
+    <row r="20" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+    </row>
+    <row r="21" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+    </row>
+    <row r="22" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+    </row>
+    <row r="23" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+    </row>
+    <row r="24" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+    </row>
+    <row r="25" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+    </row>
+    <row r="26" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+    </row>
+    <row r="27" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+    </row>
+    <row r="28" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+    </row>
+    <row r="29" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+    </row>
+    <row r="30" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+    </row>
+    <row r="31" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+    </row>
+    <row r="32" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+    </row>
+    <row r="33" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+    </row>
+    <row r="34" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+    </row>
+    <row r="35" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="K35" s="11"/>
+    </row>
+    <row r="36" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="K36" s="11"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="K37" s="13"/>
+      <c r="A37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="K37" s="11"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="K38" s="13"/>
+      <c r="A38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="K38" s="11"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="H39" s="13"/>
-      <c r="K39" s="13"/>
+      <c r="A39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="H39" s="11"/>
+      <c r="K39" s="11"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A40" s="11"/>
+      <c r="A40" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A7:K7"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A16:K16"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="H9:K12"/>
@@ -1509,22 +1511,6 @@
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:G14"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A16:K16"/>
   </mergeCells>
   <pageMargins left="0.79" right="0.39" top="0" bottom="0.39" header="0" footer="0.5"/>
   <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="portrait" r:id="rId1"/>
